--- a/documentation/Økonomiberegning.xlsx
+++ b/documentation/Økonomiberegning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399D667A-38BC-47BB-968C-2640937D8D48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E5E3B2-4B01-40A9-944E-7BAF91B50BAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Marcus Bournonwille</t>
+  </si>
+  <si>
+    <t>kr</t>
   </si>
 </sst>
 </file>
@@ -425,18 +428,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,12 +454,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -464,53 +468,74 @@
         <f>B2*C2</f>
         <v>0</v>
       </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
         <f>B2*1</f>
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D5" si="0">B3*C3</f>
-        <v>1500</v>
+        <v>15000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
         <f>B2*1</f>
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>10000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <f>B2*1</f>
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>10000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <f>D2+D3+D4+D5</f>
+        <v>35000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -519,6 +544,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DEA7B9EE2EC1BC438A740159FD6BA627" ma:contentTypeVersion="12" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="9cf36195080cdad0305e670b19f812a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5cd0c5d1-9780-4807-b143-de7a97f14eb4" xmlns:ns3="8ffe4e41-2d6a-4af0-9950-696657eb94b5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="21319b39e7b061032102bdee9eb9ebe2" ns2:_="" ns3:_="">
     <xsd:import namespace="5cd0c5d1-9780-4807-b143-de7a97f14eb4"/>
@@ -735,22 +775,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61548208-27A5-403F-83B8-C022A44378EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D246FBF7-F5C1-4FC9-9F1B-C4A797BC6D6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8F7BE72-B640-4D0C-B2BF-7354E7763A33}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -767,21 +809,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D246FBF7-F5C1-4FC9-9F1B-C4A797BC6D6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61548208-27A5-403F-83B8-C022A44378EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>